--- a/format-upload-karyawan.xlsx
+++ b/format-upload-karyawan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\undian-reward\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\undian_hadiah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9781AE-0AAD-4899-91AA-C49397446E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD151F2-6EF3-4CED-9200-5B67DA14A040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>nik</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>nama_karyawan</t>
   </si>
@@ -426,122 +423,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10021</v>
-      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10022</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10023</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>10025</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10026</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{C7D9DBC7-4CE7-4B0F-867C-AA0E438A81DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{C7D9DBC7-4CE7-4B0F-867C-AA0E438A81DD}">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
   </dataValidations>
